--- a/src/assets/ttn-template.xlsx
+++ b/src/assets/ttn-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952EF96-97E7-D044-ABF9-62B3739CD467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A7ABCD-DFFD-7347-B8DF-139341E5278F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="207">
   <si>
     <t>Типовая межотраслевая форма № 1-Т</t>
   </si>
@@ -696,9 +696,6 @@
   </si>
   <si>
     <t>кг</t>
-  </si>
-  <si>
-    <t>Итого: масса брутто, кг</t>
   </si>
 </sst>
 </file>
@@ -2655,8 +2652,8 @@
   </sheetPr>
   <dimension ref="A1:LT108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="CJ45" sqref="CJ45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="FU75" sqref="FU75:GH75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0.6640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5301,7 +5298,7 @@
       <c r="EG21" s="219"/>
       <c r="EH21" s="231"/>
       <c r="EI21" s="259" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="EJ21" s="259"/>
       <c r="EK21" s="259"/>
@@ -5556,7 +5553,7 @@
       <c r="EG23" s="263"/>
       <c r="EH23" s="264"/>
       <c r="EI23" s="259" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="EJ23" s="259"/>
       <c r="EK23" s="259"/>
@@ -12325,9 +12322,7 @@
       <c r="AF73" s="180"/>
       <c r="AG73" s="180"/>
       <c r="AH73" s="181"/>
-      <c r="AI73" s="182" t="s">
-        <v>180</v>
-      </c>
+      <c r="AI73" s="182"/>
       <c r="AJ73" s="100"/>
       <c r="AK73" s="100"/>
       <c r="AL73" s="100"/>
@@ -12383,10 +12378,7 @@
       <c r="CJ73" s="100"/>
       <c r="CK73" s="100"/>
       <c r="CL73" s="100"/>
-      <c r="CM73" s="58">
-        <f>ED17</f>
-        <v>0</v>
-      </c>
+      <c r="CM73" s="58"/>
       <c r="CN73" s="51"/>
       <c r="CO73" s="51"/>
       <c r="CP73" s="51"/>
@@ -12402,39 +12394,6 @@
       <c r="CZ73" s="51"/>
       <c r="DA73" s="51"/>
       <c r="DB73" s="68"/>
-      <c r="DC73" s="180"/>
-      <c r="DD73" s="180"/>
-      <c r="DE73" s="180"/>
-      <c r="DF73" s="180"/>
-      <c r="DG73" s="180"/>
-      <c r="DH73" s="180"/>
-      <c r="DI73" s="180"/>
-      <c r="DJ73" s="180"/>
-      <c r="DK73" s="180"/>
-      <c r="DL73" s="180"/>
-      <c r="DM73" s="180"/>
-      <c r="DN73" s="180"/>
-      <c r="DO73" s="180"/>
-      <c r="DP73" s="180"/>
-      <c r="DQ73" s="180"/>
-      <c r="DR73" s="180"/>
-      <c r="DS73" s="180"/>
-      <c r="DT73" s="180"/>
-      <c r="DU73" s="180"/>
-      <c r="DV73" s="180"/>
-      <c r="DW73" s="180"/>
-      <c r="DX73" s="180"/>
-      <c r="DY73" s="180"/>
-      <c r="DZ73" s="180"/>
-      <c r="EA73" s="180"/>
-      <c r="EB73" s="180"/>
-      <c r="EC73" s="180"/>
-      <c r="ED73" s="180"/>
-      <c r="EE73" s="180"/>
-      <c r="EF73" s="180"/>
-      <c r="EG73" s="180"/>
-      <c r="EH73" s="180"/>
-      <c r="EI73" s="180"/>
       <c r="EJ73" s="184"/>
       <c r="EK73" s="100"/>
       <c r="EL73" s="100"/>
@@ -12472,10 +12431,7 @@
       <c r="FR73" s="100"/>
       <c r="FS73" s="100"/>
       <c r="FT73" s="183"/>
-      <c r="FU73" s="188">
-        <f>EO17</f>
-        <v>762</v>
-      </c>
+      <c r="FU73" s="188"/>
       <c r="FV73" s="163"/>
       <c r="FW73" s="163"/>
       <c r="FX73" s="163"/>
@@ -12848,7 +12804,7 @@
       <c r="ES75" s="172"/>
       <c r="ET75" s="173"/>
       <c r="EU75" s="174" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="EV75" s="174"/>
       <c r="EW75" s="174"/>
@@ -12876,7 +12832,7 @@
       <c r="FS75" s="174"/>
       <c r="FT75" s="174"/>
       <c r="FU75" s="175">
-        <f>FU73</f>
+        <f>DS20</f>
         <v>762</v>
       </c>
       <c r="FV75" s="176"/>
@@ -19304,7 +19260,7 @@
     </row>
     <row r="108" spans="1:190" ht="12.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="431">
+  <mergeCells count="430">
     <mergeCell ref="GP10:LT10"/>
     <mergeCell ref="CX18:EL18"/>
     <mergeCell ref="A14:GE14"/>
@@ -19507,7 +19463,7 @@
     <mergeCell ref="AI73:BT73"/>
     <mergeCell ref="BU73:CL73"/>
     <mergeCell ref="CM73:DB73"/>
-    <mergeCell ref="DC73:EI73"/>
+    <mergeCell ref="DC72:EI72"/>
     <mergeCell ref="EJ73:ET73"/>
     <mergeCell ref="EU73:FG73"/>
     <mergeCell ref="FH73:FT73"/>
@@ -19516,7 +19472,6 @@
     <mergeCell ref="AI72:BT72"/>
     <mergeCell ref="BU72:CL72"/>
     <mergeCell ref="CM72:DB72"/>
-    <mergeCell ref="DC72:EI72"/>
     <mergeCell ref="EJ72:ET72"/>
     <mergeCell ref="EU72:FG72"/>
     <mergeCell ref="FH72:FT72"/>
